--- a/Processes/RMS_HREAFormDataExtraction/Data/Config.xlsx
+++ b/Processes/RMS_HREAFormDataExtraction/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="5775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="5775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -216,10 +216,10 @@
     <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\DEV\RMS_HREAFormDataExtraction\Remaining</t>
   </si>
   <si>
-    <t>C:\UiPath\RpaUiPathProcess\Processes\RMS_HREAFormDataExtraction\Data\HREA ID linked to RM ID.xlsx</t>
-  </si>
-  <si>
     <t>LinkingWorkbook</t>
+  </si>
+  <si>
+    <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\DEV\RMS_HREAFormDataExtraction\HREA ID linked to RM ID.xlsx</t>
   </si>
 </sst>
 </file>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -615,14 +615,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1623,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,7 +1720,14 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Processes/RMS_HREAFormDataExtraction/Data/Config.xlsx
+++ b/Processes/RMS_HREAFormDataExtraction/Data/Config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\DEV\RMS_HREAFormDataExtraction\HREA ID linked to RM ID.xlsx</t>
+  </si>
+  <si>
+    <t>FileServer_BotFiles</t>
+  </si>
+  <si>
+    <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\DEV\RMS_HREAFormDataExtraction\Bot Files</t>
   </si>
 </sst>
 </file>
@@ -1614,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,16 +1725,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2712,6 +2727,7 @@
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Processes/RMS_HREAFormDataExtraction/Data/Config.xlsx
+++ b/Processes/RMS_HREAFormDataExtraction/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\RpaUiPathProcess\Processes\RMS_HREAFormDataExtraction\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spamish\Documents\UiPath\RpaUiPathProcess\Processes\RMS_HREAFormDataExtraction\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1127FDED-4D5E-49F8-A93E-763E15ACC7FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="5775" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -226,13 +227,28 @@
   </si>
   <si>
     <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\DEV\RMS_HREAFormDataExtraction\Bot Files</t>
+  </si>
+  <si>
+    <t>RMS_HREAMigration_PortalLogin</t>
+  </si>
+  <si>
+    <t>HREA Portal Login</t>
+  </si>
+  <si>
+    <t>SSO_rpa00004</t>
+  </si>
+  <si>
+    <t>https://uqomnistar2uat.f1solutions.com.au/</t>
+  </si>
+  <si>
+    <t>HREA Portal URL DEV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -243,6 +259,12 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,10 +287,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -621,7 +645,14 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1615,15 +1646,16 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1710,7 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2734,7 +2766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0"/>
@@ -3946,11 +3978,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4001,8 +4033,22 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Processes/RMS_HREAFormDataExtraction/Data/Config.xlsx
+++ b/Processes/RMS_HREAFormDataExtraction/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spamish\Documents\UiPath\RpaUiPathProcess\Processes\RMS_HREAFormDataExtraction\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZMcEn\Desktop\RpaUiPathProcess\Processes\RMS_HREAFormDataExtraction\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1127FDED-4D5E-49F8-A93E-763E15ACC7FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D8B286-1E44-4569-9A04-A067E10A0767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8700" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -208,6 +208,33 @@
     <t>FileServer_Leftover</t>
   </si>
   <si>
+    <t>LinkingWorkbook</t>
+  </si>
+  <si>
+    <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\DEV\RMS_HREAFormDataExtraction\HREA ID linked to RM ID.xlsx</t>
+  </si>
+  <si>
+    <t>FileServer_BotFiles</t>
+  </si>
+  <si>
+    <t>RMS_HREAMigration_PortalLogin</t>
+  </si>
+  <si>
+    <t>HREA Portal Login</t>
+  </si>
+  <si>
+    <t>https://uqomnistar2uat.f1solutions.com.au/</t>
+  </si>
+  <si>
+    <t>HREA Portal URL DEV</t>
+  </si>
+  <si>
+    <t>\\nas02.storage.uq.edu.au\DVCR\RMO\HE</t>
+  </si>
+  <si>
+    <t>SSO_rpa00002</t>
+  </si>
+  <si>
     <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\DEV\RMS_HREAFormDataExtraction\Samples</t>
   </si>
   <si>
@@ -217,38 +244,14 @@
     <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\DEV\RMS_HREAFormDataExtraction\Remaining</t>
   </si>
   <si>
-    <t>LinkingWorkbook</t>
-  </si>
-  <si>
-    <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\DEV\RMS_HREAFormDataExtraction\HREA ID linked to RM ID.xlsx</t>
-  </si>
-  <si>
-    <t>FileServer_BotFiles</t>
-  </si>
-  <si>
     <t>\\nas02.storage.uq.edu.au\CA\ITS\Academic Services\RPA\DEV\RMS_HREAFormDataExtraction\Bot Files</t>
-  </si>
-  <si>
-    <t>RMS_HREAMigration_PortalLogin</t>
-  </si>
-  <si>
-    <t>HREA Portal Login</t>
-  </si>
-  <si>
-    <t>SSO_rpa00004</t>
-  </si>
-  <si>
-    <t>https://uqomnistar2uat.f1solutions.com.au/</t>
-  </si>
-  <si>
-    <t>HREA Portal URL DEV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -265,6 +268,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -284,17 +293,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -575,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -647,10 +660,10 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1654,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,12 +1721,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1726,10 +1743,16 @@
       <c r="A6" t="s">
         <v>55</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1737,32 +1760,32 @@
       <c r="A9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>61</v>
+      <c r="B9" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
+      <c r="B10" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
+      <c r="B11" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1770,10 +1793,10 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2761,7 +2784,18 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{B010107A-4A8F-49A0-986A-47CB72EBD6E4}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{9BB9FCDF-2C8B-47E5-8E73-109E208A1D99}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{93B08B87-B5DA-4F5D-8E0E-E1BCB47B7CFE}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{4C9233B0-F60B-47E0-8C67-90B2089AAD3A}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{A6EB4B3B-C7F6-4C4A-A3BF-24BDCDF6590E}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{A168B3B0-1057-4B15-9D1A-2923DCD6AD6D}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{7B1DB561-01D2-4344-B9C2-E474AEAACB3D}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{0C8EC72C-4CFA-4855-8B39-F1104B037A1A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -2769,7 +2803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3982,7 +4016,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4035,18 +4069,18 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
-        <v>70</v>
+      <c r="B5" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
